--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -49,15 +49,15 @@
     <t>thin</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -67,100 +67,106 @@
     <t>broke</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>bit</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>better</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>buy</t>
   </si>
   <si>
     <t>use</t>
@@ -169,18 +175,12 @@
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -193,12 +193,12 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -217,21 +217,21 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
@@ -241,13 +241,13 @@
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -680,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>56</v>
@@ -730,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>58</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6881720430107527</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C6">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K6">
-        <v>0.7849462365591398</v>
+        <v>0.796875</v>
       </c>
       <c r="L6">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6857142857142857</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>60</v>
       </c>
       <c r="K7">
-        <v>0.78125</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.676056338028169</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K8">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.671875</v>
+        <v>0.6875</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K9">
-        <v>0.5738880918220947</v>
+        <v>0.5710186513629842</v>
       </c>
       <c r="L9">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M9">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6554054054054054</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C10">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K10">
-        <v>0.5362318840579711</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6359223300970874</v>
+        <v>0.6504854368932039</v>
       </c>
       <c r="C11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K11">
-        <v>0.504149377593361</v>
+        <v>0.5062240663900415</v>
       </c>
       <c r="L11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.631578947368421</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K12">
-        <v>0.4721311475409836</v>
+        <v>0.4581967213114754</v>
       </c>
       <c r="L12">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="M12">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>644</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6050420168067226</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K13">
-        <v>0.345565749235474</v>
+        <v>0.363914373088685</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5952380952380952</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K14">
-        <v>0.3433734939759036</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L14">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5636363636363636</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,13 +1304,13 @@
         <v>68</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.3433734939759036</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K16">
-        <v>0.3166666666666667</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5159420289855072</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C17">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K17">
-        <v>0.2377622377622378</v>
+        <v>0.234375</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4888888888888889</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K18">
-        <v>0.21875</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1480,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4259259259259259</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K19">
-        <v>0.1827956989247312</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1530,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4216867469879518</v>
+        <v>0.3886255924170616</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K20">
-        <v>0.176706827309237</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,31 +1598,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K21">
-        <v>0.1412280701754386</v>
+        <v>0.1454864154250657</v>
       </c>
       <c r="L21">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M21">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,25 +1654,25 @@
         <v>75</v>
       </c>
       <c r="K22">
-        <v>0.07337662337662337</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="L22">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1427</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,13 +1680,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3791469194312796</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C23">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>76</v>
@@ -1730,7 +1730,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3650793650793651</v>
+        <v>0.359375</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1748,31 +1748,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K24">
-        <v>0.06685236768802229</v>
+        <v>0.07082521117608837</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>335</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,13 +1780,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.359375</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1798,31 +1798,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K25">
-        <v>0.04539385847797063</v>
+        <v>0.044</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N25">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O25">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1830,13 +1830,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3543307086614173</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1856,13 +1856,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1882,13 +1882,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3146067415730337</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1908,13 +1908,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2722772277227723</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1934,13 +1934,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2422680412371134</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C30">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1960,13 +1960,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2346938775510204</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1986,13 +1986,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2051282051282051</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>93</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2012,13 +2012,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1992753623188406</v>
+        <v>0.17</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>221</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2038,13 +2038,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.180379746835443</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C34">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D34">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1664190193164933</v>
+        <v>0.150521609538003</v>
       </c>
       <c r="C35">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D35">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F35">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>561</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1571428571428571</v>
+        <v>0.1498559077809798</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>118</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2116,13 +2116,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.155</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2142,13 +2142,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1424050632911392</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C38">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2168,13 +2168,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1401869158878505</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2194,13 +2194,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1343612334801762</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C40">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>393</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1268011527377522</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>303</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2246,13 +2246,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.125</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1123595505617977</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>237</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08516483516483517</v>
+        <v>0.1167400881057269</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D44">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>333</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.08258928571428571</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C45">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D45">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>411</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2350,13 +2350,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.07605633802816901</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="C46">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07107438016528926</v>
+        <v>0.07572383073496659</v>
       </c>
       <c r="C47">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D47">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E47">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>562</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.04447268106734435</v>
+        <v>0.06765676567656766</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D48">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E48">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="F48">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>752</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.04287901990811639</v>
+        <v>0.04336734693877551</v>
       </c>
       <c r="C49">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E49">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="F49">
-        <v>0.9299999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>625</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
